--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 24C/PRUEBA_TEMPERATURA_23_24C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 24C/PRUEBA_TEMPERATURA_23_24C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,109 +73,130 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-08 23:19:32</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:20:34</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:21:36</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:22:39</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:23:41</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:24:44</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:25:46</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:26:48</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:27:51</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:28:53</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:29:56</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:30:58</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:32:00</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:33:03</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:34:05</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:35:08</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:36:10</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:37:13</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:38:15</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:39:17</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:40:20</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:41:22</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:42:25</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:43:27</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:44:29</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:45:32</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:46:34</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:47:37</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:48:39</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:49:41</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:50:44</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:51:46</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:52:49</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:53:51</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:54:54</t>
+    <t>2023-12-12 03:19:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:20:42</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:21:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:22:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:23:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:23:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:24:41</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:25:29</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:26:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:27:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:27:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:28:40</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:29:28</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:30:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:31:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:31:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:32:39</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:33:26</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:34:14</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:35:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:35:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:36:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:37:25</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:38:13</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:39:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:39:48</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:40:36</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:41:24</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:42:12</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:42:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:43:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:44:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:45:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:46:10</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:46:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:47:46</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:48:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:49:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:50:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:50:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:51:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:52:33</t>
   </si>
 </sst>
 </file>
@@ -842,111 +863,135 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
+                  <c:v>27.2465034965035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.722027972027998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.459790209790199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.066433566433599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.066433566433599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.673076923076898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.410839160839199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.410839160839199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.279720279720301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.279720279720301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.279720279720301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.279720279720301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.886363636363601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.968531468531399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.017482517482499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.279720279720301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>26.1975524475524</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="38">
+                  <c:v>26.066433566433599</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>26.1975524475524</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.935314685314701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.673076923076898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.541958041958001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.493006993006901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.886363636363601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.1486013986014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.361888111888099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.624125874125799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.886363636363601</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.7062937062937</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.017482517482499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.017482517482499</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.886363636363601</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.312937062936999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.312937062936999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.7552447552447</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.624125874125799</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.886363636363601</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.7552447552447</c:v>
+                <c:pt idx="40">
+                  <c:v>26.459790209790199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.590909090909101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,37 +1247,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>24.230769230769202</c:v>
+                  <c:v>25.1486013986014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>24.624125874125799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>24.624125874125799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>25.1486013986014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>25.1486013986014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>25.1486013986014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.7552447552447</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24.624125874125799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.886363636363601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.7552447552447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.575174825174798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,10 +1374,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24.051970756516173</c:v>
+                  <c:v>24.934043229497753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.051970756516173</c:v>
+                  <c:v>24.934043229497753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,9 +3099,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3103,17 +3148,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.1975524475524</v>
+        <v>27.2465034965035</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>8.6574074084637687E-3</v>
+        <v>6.0763888832298107E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3130,14 +3175,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.1975524475524</v>
+        <v>26.722027972027998</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
-        <f>COUNT(E:E)</f>
-        <v>35</v>
+      <c r="H3" s="3">
+        <f>COUNT(E:E)-6</f>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3154,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.935314685314701</v>
+        <v>26.459790209790199</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3171,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.673076923076898</v>
+        <v>26.066433566433599</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3188,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.541958041958001</v>
+        <v>26.066433566433599</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3205,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.493006993006901</v>
+        <v>25.8041958041958</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3222,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>24.886363636363601</v>
+        <v>25.8041958041958</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3239,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.1486013986014</v>
+        <v>25.673076923076898</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3256,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.361888111888099</v>
+        <v>25.410839160839199</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3273,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.0996503496503</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.624125874125799</v>
+        <v>25.410839160839199</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3307,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.886363636363601</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3324,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.837412587412501</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3341,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.7062937062937</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3358,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.017482517482499</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3375,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.017482517482499</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3388,11 +3433,11 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.444055944055901</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3409,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.837412587412501</v>
+        <v>24.886363636363601</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3426,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3443,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.886363636363601</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3460,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3477,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.0996503496503</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3494,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.312937062936999</v>
+        <v>25.017482517482499</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3511,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.312937062936999</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3528,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>24.230769230769202</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3545,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>23.444055944055901</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3562,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>23.575174825174798</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3579,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>23.575174825174798</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3596,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3613,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3630,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>24.7552447552447</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3647,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>24.624125874125799</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3664,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>24.886363636363601</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3681,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>24.7552447552447</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3698,7 +3743,126 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>24.624125874125799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>25.8041958041958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>26.1975524475524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>26.066433566433599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>26.1975524475524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>26.459790209790199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>26.590909090909101</v>
       </c>
     </row>
   </sheetData>
@@ -3711,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3737,45 +3901,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:44:29</v>
+        <v>2023-12-12 03:39:48</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>24.230769230769202</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>24.051970756516173</v>
+        <v>24.934043229497753</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:45:32</v>
+        <v>2023-12-12 03:40:36</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>23.444055944055901</v>
+        <v>24.624125874125799</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>24.051970756516173</v>
+        <v>24.934043229497753</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:46:34</v>
+        <v>2023-12-12 03:41:24</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>24.624125874125799</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3784,35 +3948,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:47:37</v>
+        <v>2023-12-12 03:42:12</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.59589954736049744</v>
+        <v>0.30622773153209359</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:48:39</v>
+        <v>2023-12-12 03:42:59</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:49:41</v>
+        <v>2023-12-12 03:43:47</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3821,36 +3985,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:50:44</v>
+        <v>2023-12-12 03:44:35</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>24.7552447552447</v>
+        <v>24.361888111888099</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>24.886363636363601</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:51:46</v>
+        <v>2023-12-12 03:45:23</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>24.624125874125799</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:52:49</v>
+        <v>2023-12-12 03:46:10</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>24.886363636363601</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3859,25 +4023,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:53:51</v>
+        <v>2023-12-12 03:46:58</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>24.7552447552447</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>23.444055944055901</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:54:54</v>
+        <v>2023-12-12 03:47:46</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
